--- a/Data/Export/Common/Argumentation_义理.xlsx
+++ b/Data/Export/Common/Argumentation_义理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1933DA8A-060D-4070-B8BA-14346A247B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD44083-65F2-4A65-97BF-DCFEF3986C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Argumentations" sheetId="36" r:id="rId1"/>
@@ -31,11 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,9 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>falseReportSuccessAdd</t>
-  </si>
-  <si>
     <t>disturbSuccessAdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,9 +101,6 @@
     <t>作为主将释放[伪报]的暴击率加成</t>
   </si>
   <si>
-    <t>作为目标对[伪报]成功率加成</t>
-  </si>
-  <si>
     <t>作为目标对[扰乱]成功率加成</t>
   </si>
   <si>
@@ -166,6 +156,18 @@
   </si>
   <si>
     <t>不会背叛</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对忠诚度计算的加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loyaltyAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -626,13 +628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C9"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -641,54 +643,54 @@
     <col min="2" max="2" width="5.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="2" customWidth="1"/>
-    <col min="8" max="11" width="26.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="28.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="24.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="26.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="28.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -696,402 +698,424 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="I4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>10</v>
-      </c>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4">
         <v>5</v>
       </c>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4">
         <v>-5</v>
       </c>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="4">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="4">
         <v>-10</v>
       </c>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
     </row>
@@ -1159,206 +1183,240 @@
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="M69" s="4"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="N69" s="4"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="M70" s="4"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="N70" s="4"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="M71" s="4"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="N71" s="4"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="M72" s="4"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="N72" s="4"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="M73" s="4"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="N73" s="4"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="M74" s="4"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="N74" s="4"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="M75" s="4"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="N75" s="4"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="M76" s="4"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="N76" s="4"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="M77" s="4"/>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="N77" s="4"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="M78" s="4"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="N78" s="4"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="M79" s="4"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="N79" s="4"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="M80" s="4"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="N80" s="4"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="M81" s="4"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="N81" s="4"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="M82" s="4"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="N82" s="4"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="M83" s="4"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="N83" s="4"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="M84" s="4"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="N84" s="4"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="M85" s="4"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="N85" s="4"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="M86" s="4"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="N86" s="4"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="M87" s="4"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="N87" s="4"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="M88" s="4"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="N88" s="4"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="M89" s="4"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="N89" s="4"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="M90" s="4"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="N90" s="4"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="M91" s="4"/>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="N91" s="4"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="M92" s="4"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="N92" s="4"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="M93" s="4"/>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G94" s="4"/>
-      <c r="M94" s="4"/>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G95" s="4"/>
-      <c r="M95" s="4"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="G96" s="4"/>
-      <c r="M96" s="4"/>
-    </row>
-    <row r="97" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G97" s="4"/>
-      <c r="M97" s="4"/>
-    </row>
-    <row r="98" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G98" s="4"/>
-      <c r="M98" s="4"/>
-    </row>
-    <row r="99" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G99" s="4"/>
-      <c r="M99" s="4"/>
-    </row>
-    <row r="100" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G100" s="4"/>
-      <c r="M100" s="4"/>
-    </row>
-    <row r="101" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G101" s="4"/>
-      <c r="M101" s="4"/>
-    </row>
-    <row r="102" spans="7:13" x14ac:dyDescent="0.15">
-      <c r="G102" s="4"/>
-      <c r="M102" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="N93" s="4"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="N94" s="4"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="N95" s="4"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="N96" s="4"/>
+    </row>
+    <row r="97" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="N97" s="4"/>
+    </row>
+    <row r="98" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="N98" s="4"/>
+    </row>
+    <row r="99" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="N99" s="4"/>
+    </row>
+    <row r="100" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="N100" s="4"/>
+    </row>
+    <row r="101" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="N101" s="4"/>
+    </row>
+    <row r="102" spans="5:14" x14ac:dyDescent="0.15">
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="N102" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
